--- a/Design/Excel/ET/Datas/__tables__.xlsx
+++ b/Design/Excel/ET/Datas/__tables__.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/XW-APFS/Study/GitHub/GameDevelopmentKit/Design/Excel/ET/Datas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B2C22-B798-B641-B466-189CCAD844C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28120" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -162,7 +168,8 @@
         <sz val="11"/>
         <color rgb="FF800080"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>One</t>
@@ -173,7 +180,8 @@
         <sz val="11"/>
         <color rgb="FF800080"/>
         <rFont val="等线"/>
-        <charset val="0"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Config.xlsx</t>
@@ -203,18 +211,24 @@
   <si>
     <t>UnitConfig.xlsx</t>
   </si>
+  <si>
+    <t>DTDemo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRDemo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo.xlsx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +240,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -233,35 +248,16 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="4"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="4"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,7 +265,8 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="4"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,104 +274,19 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,188 +299,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -576,320 +308,45 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1147,31 +604,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.125" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="34.375" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
     <col min="6" max="6" width="29.5" customWidth="1"/>
     <col min="7" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.3833333333333" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+    <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,7 +704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    <row r="3" spans="1:13" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:13">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -1293,7 +750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -1313,7 +770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="1:13">
       <c r="B6" t="s">
         <v>39</v>
       </c>
@@ -1333,7 +790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="1:13">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -1353,7 +810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="1:13">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -1373,7 +830,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="1:13">
       <c r="B9" t="s">
         <v>50</v>
       </c>
@@ -1390,7 +847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="1:13">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -1407,12 +864,29 @@
         <v>49</v>
       </c>
     </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" display="OneConfig.xlsx"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Design/Excel/ET/Datas/__tables__.xlsx
+++ b/Design/Excel/ET/Datas/__tables__.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/XW-APFS/Study/GitHub/GameDevelopmentKit/Design/Excel/ET/Datas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B2C22-B798-B641-B466-189CCAD844C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28120" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="18135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -31,7 +38,7 @@
     <t>value_type</t>
   </si>
   <si>
-    <t>define_from_file</t>
+    <t>read_schema_from_file</t>
   </si>
   <si>
     <t>input</t>
@@ -49,18 +56,12 @@
     <t>comment</t>
   </si>
   <si>
-    <t>patch_input</t>
-  </si>
-  <si>
     <t>tags</t>
   </si>
   <si>
     <t>output</t>
   </si>
   <si>
-    <t>options</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -88,9 +89,6 @@
     <t>注释</t>
   </si>
   <si>
-    <t>分支文件列表</t>
-  </si>
-  <si>
     <t>输出文件名</t>
   </si>
   <si>
@@ -109,9 +107,6 @@
     <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
   </si>
   <si>
-    <t>用于本地化。可以多个，以逗号分隔</t>
-  </si>
-  <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
@@ -127,7 +122,7 @@
     <t>StartConfig+Id</t>
   </si>
   <si>
-    <t>s</t>
+    <t>s,e</t>
   </si>
   <si>
     <t>DTStartProcessConfig</t>
@@ -168,7 +163,6 @@
         <sz val="11"/>
         <color rgb="FF800080"/>
         <rFont val="等线"/>
-        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -180,7 +174,6 @@
         <sz val="11"/>
         <color rgb="FF800080"/>
         <rFont val="等线"/>
-        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -211,24 +204,18 @@
   <si>
     <t>UnitConfig.xlsx</t>
   </si>
-  <si>
-    <t>DTDemo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRDemo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo.xlsx</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,7 +227,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -248,45 +234,156 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +396,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -308,45 +585,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -604,31 +1156,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="40.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" customWidth="1"/>
-    <col min="6" max="6" width="29.5" customWidth="1"/>
-    <col min="7" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="29.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="58.375" customWidth="1"/>
+    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.2166666666667" customWidth="1"/>
+    <col min="8" max="8" width="9.88333333333333" customWidth="1"/>
+    <col min="9" max="9" width="10.1083333333333" customWidth="1"/>
+    <col min="10" max="10" width="9.10833333333333" customWidth="1"/>
+    <col min="11" max="11" width="7.55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,231 +1216,202 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="C4" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E8" r:id="rId1" display="OneConfig.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Design/Excel/ET/Datas/__tables__.xlsx
+++ b/Design/Excel/ET/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18135"/>
+    <workbookView windowWidth="28785" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>UnitConfig.xlsx</t>
+  </si>
+  <si>
+    <t>DTDemo</t>
+  </si>
+  <si>
+    <t>DRDemo</t>
+  </si>
+  <si>
+    <t>Demo.xlsx</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -1162,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1406,6 +1418,23 @@
         <v>45</v>
       </c>
     </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" display="OneConfig.xlsx"/>

--- a/Design/Excel/ET/Datas/__tables__.xlsx
+++ b/Design/Excel/ET/Datas/__tables__.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="12615"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -108,6 +108,72 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>DTUIForm</t>
+  </si>
+  <si>
+    <t>DRUIForm</t>
+  </si>
+  <si>
+    <t>Game/UI.xlsx</t>
+  </si>
+  <si>
+    <t>gc,ge</t>
+  </si>
+  <si>
+    <t>DTEntity</t>
+  </si>
+  <si>
+    <t>DREntity</t>
+  </si>
+  <si>
+    <t>Game/Entity.xlsx</t>
+  </si>
+  <si>
+    <t>DTScene</t>
+  </si>
+  <si>
+    <t>DRScene</t>
+  </si>
+  <si>
+    <t>Game/Scene.xlsx</t>
+  </si>
+  <si>
+    <t>DTSound</t>
+  </si>
+  <si>
+    <t>DRSound</t>
+  </si>
+  <si>
+    <t>Game/Sound@Sound.xlsx</t>
+  </si>
+  <si>
+    <t>DTUISound</t>
+  </si>
+  <si>
+    <t>DRUISound</t>
+  </si>
+  <si>
+    <t>Game/UISound@Sound.xlsx</t>
+  </si>
+  <si>
+    <t>DTMusic</t>
+  </si>
+  <si>
+    <t>DRMusic</t>
+  </si>
+  <si>
+    <t>Game/Music@Sound.xlsx</t>
+  </si>
+  <si>
+    <t>DTUIEntity</t>
+  </si>
+  <si>
+    <t>DRUIEntity</t>
+  </si>
+  <si>
+    <t>Game/UIEntity.xlsx</t>
   </si>
   <si>
     <t>DTStartMachineConfig</t>
@@ -243,26 +309,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,6 +476,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -561,12 +633,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,10 +784,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,16 +811,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -766,75 +832,75 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,14 +911,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1174,13 +1252,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="29.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1284,160 +1362,296 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:11">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:11">
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="b">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:11">
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="b">
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:11">
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="b">
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:11">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="b">
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:11">
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:11">
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="b">
+      <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>50</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="H11" t="s">
+      <c r="C12" t="s">
         <v>55</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" display="OneConfig.xlsx"/>
+    <hyperlink ref="E15" r:id="rId1" display="OneConfig.xlsx"/>
+    <hyperlink ref="E7" r:id="rId2" display="Game/Sound@Sound.xlsx" tooltip="mailto:Sound@Sound.xlsx"/>
+    <hyperlink ref="E8" r:id="rId3" display="Game/UISound@Sound.xlsx"/>
+    <hyperlink ref="E9" r:id="rId1" display="Game/Music@Sound.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
